--- a/tab2_PIVOTEADA.xlsx
+++ b/tab2_PIVOTEADA.xlsx
@@ -1909,13 +1909,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="12"/>
   </cols>
@@ -3929,9 +3929,7 @@
       <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C183" s="6">
-        <v>97</v>
-      </c>
+      <c r="C183" s="6"/>
     </row>
     <row r="184" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
@@ -3941,7 +3939,8 @@
         <v>3</v>
       </c>
       <c r="C184" s="8">
-        <v>111</v>
+        <f>111+97</f>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.35">
